--- a/4-28/实验结果4-28.xlsx
+++ b/4-28/实验结果4-28.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="12570"/>
+    <workbookView windowWidth="11424" windowHeight="9515"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
   <si>
     <t>COD</t>
   </si>
@@ -106,13 +106,17 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="7">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="178" formatCode="0.000_ "/>
-    <numFmt numFmtId="179" formatCode="0.0000_ "/>
+    <numFmt numFmtId="177" formatCode="0.000_ "/>
+    <numFmt numFmtId="178" formatCode="0.0000_ "/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,21 +125,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -169,13 +497,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -194,41 +764,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -489,75 +1092,76 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3:M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4"/>
   <cols>
-    <col min="17" max="17" width="12.625"/>
+    <col min="17" max="17" width="12.6296296296296"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A1" s="10"/>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10" t="s">
+    <row r="1" ht="15.9" spans="1:25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
-      <c r="R1" s="10" t="s">
+      <c r="R1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
       <c r="U1" s="1"/>
-      <c r="V1" s="10" t="s">
+      <c r="V1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="W1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="X1" s="10" t="s">
+      <c r="X1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="Y1" s="10" t="s">
+      <c r="Y1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10" t="s">
+    <row r="2" spans="1:25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="F2" s="10" t="s">
+      <c r="D2" s="1"/>
+      <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="10"/>
+      <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="10"/>
+      <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1" t="s">
         <v>10</v>
@@ -589,12 +1193,12 @@
       <c r="U2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="10"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="1"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:25">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>12</v>
@@ -617,7 +1221,7 @@
       </c>
       <c r="H3">
         <f>(G3-F3)</f>
-        <v>0.83000000000000007</v>
+        <v>0.83</v>
       </c>
       <c r="I3" s="2">
         <v>2.98</v>
@@ -627,43 +1231,43 @@
       </c>
       <c r="K3">
         <f>J3-I3</f>
-        <v>0.81999999999999984</v>
+        <v>0.82</v>
       </c>
       <c r="L3" s="2">
         <f>(K3+H3+E3)/3</f>
-        <v>0.80999999999999994</v>
+        <v>0.81</v>
       </c>
       <c r="M3" s="2">
         <f>($L$11-L3)/$E$12*8*1000/1</f>
-        <v>490.69003285870787</v>
+        <v>490.690032858708</v>
       </c>
       <c r="N3" s="5">
-        <v>0.30599999999999999</v>
+        <v>0.306</v>
       </c>
       <c r="O3" s="5">
-        <v>0.29899999999999999</v>
+        <v>0.299</v>
       </c>
       <c r="P3" s="5">
         <f>(O3+N3)/2</f>
-        <v>0.30249999999999999</v>
-      </c>
-      <c r="Q3" s="6">
+        <v>0.3025</v>
+      </c>
+      <c r="Q3" s="7">
         <f>(P3*0.27351-0.01216)/3*1000</f>
-        <v>23.52559166666666</v>
-      </c>
-      <c r="R3" s="7">
+        <v>23.5255916666667</v>
+      </c>
+      <c r="R3" s="8">
         <v>0.251</v>
       </c>
-      <c r="S3" s="7">
+      <c r="S3" s="8">
         <v>0.254</v>
       </c>
-      <c r="T3" s="7">
+      <c r="T3" s="8">
         <f>(S3+R3)/2</f>
         <v>0.2525</v>
       </c>
-      <c r="U3" s="7">
+      <c r="U3" s="8">
         <f>(108.1*T3-0.2735)/1</f>
-        <v>27.021750000000001</v>
+        <v>27.02175</v>
       </c>
       <c r="V3" s="2">
         <v>6.32</v>
@@ -672,11 +1276,11 @@
         <v>1.31</v>
       </c>
       <c r="X3" s="2"/>
-      <c r="Y3" s="9">
+      <c r="Y3" s="10">
         <v>22.9</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:25">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -687,21 +1291,21 @@
         <v>3.8</v>
       </c>
       <c r="D4" s="2">
-        <v>4.9800000000000004</v>
+        <v>4.98</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" ref="E4:E12" si="0">D4-C4</f>
-        <v>1.1800000000000006</v>
+        <v>1.18</v>
       </c>
       <c r="F4" s="2">
-        <v>4.9800000000000004</v>
+        <v>4.98</v>
       </c>
       <c r="G4" s="2">
         <v>6</v>
       </c>
       <c r="H4">
         <f t="shared" ref="H4:H11" si="1">(G4-F4)</f>
-        <v>1.0199999999999996</v>
+        <v>1.02</v>
       </c>
       <c r="I4" s="2">
         <v>6</v>
@@ -711,41 +1315,41 @@
       </c>
       <c r="K4">
         <f t="shared" ref="K4:K11" si="2">J4-I4</f>
-        <v>1.3200000000000003</v>
+        <v>1.32</v>
       </c>
       <c r="L4" s="2">
         <f t="shared" ref="L4:L11" si="3">(K4+H4+E4)/3</f>
-        <v>1.1733333333333336</v>
+        <v>1.17333333333333</v>
       </c>
       <c r="M4" s="2">
         <f t="shared" ref="M4:M10" si="4">($L$11-L4)/$E$12*8*1000/3</f>
-        <v>57.441888767189994</v>
+        <v>57.44188876719</v>
       </c>
       <c r="N4" s="5">
-        <v>6.6000000000000003E-2</v>
+        <v>0.066</v>
       </c>
       <c r="O4" s="5">
-        <v>6.5000000000000002E-2</v>
+        <v>0.065</v>
       </c>
       <c r="P4" s="5">
         <f t="shared" ref="P4:P10" si="5">(O4+N4)/2</f>
-        <v>6.5500000000000003E-2</v>
-      </c>
-      <c r="Q4" s="6">
+        <v>0.0655</v>
+      </c>
+      <c r="Q4" s="7">
         <f t="shared" ref="Q4:Q10" si="6">(P4*0.27351-0.01216)/3*1000</f>
-        <v>1.9183016666666659</v>
-      </c>
-      <c r="R4" s="8">
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="S4" s="8">
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="T4" s="7">
+        <v>1.91830166666667</v>
+      </c>
+      <c r="R4" s="9">
+        <v>0.117</v>
+      </c>
+      <c r="S4" s="9">
+        <v>0.116</v>
+      </c>
+      <c r="T4" s="8">
         <f t="shared" ref="T4:T10" si="7">(S4+R4)/2</f>
-        <v>0.11650000000000001</v>
-      </c>
-      <c r="U4" s="7">
+        <v>0.1165</v>
+      </c>
+      <c r="U4" s="8">
         <f t="shared" ref="U4:U10" si="8">(108.1*T4-0.2735)/1</f>
         <v>12.32015</v>
       </c>
@@ -756,11 +1360,11 @@
         <v>1.71</v>
       </c>
       <c r="X4" s="2"/>
-      <c r="Y4" s="9">
+      <c r="Y4" s="10">
         <v>22.8</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="5" ht="15.9" spans="1:25">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
@@ -771,67 +1375,67 @@
         <v>7.32</v>
       </c>
       <c r="D5" s="2">
-        <v>8.5399999999999991</v>
+        <v>8.54</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>1.2199999999999989</v>
+        <v>1.22</v>
       </c>
       <c r="F5" s="2">
-        <v>8.5399999999999991</v>
+        <v>8.54</v>
       </c>
       <c r="G5" s="2">
-        <v>9.8000000000000007</v>
+        <v>9.8</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
-        <v>1.2600000000000016</v>
+        <v>1.26</v>
       </c>
       <c r="I5" s="2">
-        <v>9.8000000000000007</v>
+        <v>9.8</v>
       </c>
       <c r="J5" s="2">
         <v>11.02</v>
       </c>
       <c r="K5">
         <f t="shared" si="2"/>
-        <v>1.2199999999999989</v>
+        <v>1.22</v>
       </c>
       <c r="L5" s="2">
         <f t="shared" si="3"/>
-        <v>1.2333333333333332</v>
+        <v>1.23333333333333</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" si="4"/>
-        <v>39.917244736521987</v>
+        <v>39.917244736522</v>
       </c>
       <c r="N5" s="5">
         <v>0.115</v>
       </c>
       <c r="O5" s="5">
-        <v>0.14399999999999999</v>
+        <v>0.144</v>
       </c>
       <c r="P5" s="5">
         <f t="shared" si="5"/>
         <v>0.1295</v>
       </c>
-      <c r="Q5" s="6">
+      <c r="Q5" s="7">
         <f t="shared" si="6"/>
-        <v>7.7531816666666646</v>
-      </c>
-      <c r="R5" s="7">
+        <v>7.75318166666666</v>
+      </c>
+      <c r="R5" s="8">
         <v>0.08</v>
       </c>
-      <c r="S5" s="7">
-        <v>7.9000000000000001E-2</v>
-      </c>
-      <c r="T5" s="7">
+      <c r="S5" s="8">
+        <v>0.079</v>
+      </c>
+      <c r="T5" s="8">
         <f t="shared" si="7"/>
-        <v>7.9500000000000001E-2</v>
-      </c>
-      <c r="U5" s="7">
+        <v>0.0795</v>
+      </c>
+      <c r="U5" s="8">
         <f t="shared" si="8"/>
-        <v>8.3204499999999992</v>
+        <v>8.32045</v>
       </c>
       <c r="V5" s="2">
         <v>6.64</v>
@@ -840,11 +1444,11 @@
         <v>1.61</v>
       </c>
       <c r="X5" s="2"/>
-      <c r="Y5" s="9">
+      <c r="Y5" s="10">
         <v>22.8</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="6" ht="15.9" spans="1:25">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -859,7 +1463,7 @@
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
-        <v>1.2000000000000011</v>
+        <v>1.2</v>
       </c>
       <c r="F6" s="2">
         <v>12.22</v>
@@ -869,53 +1473,53 @@
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>1.3499999999999996</v>
+        <v>1.35</v>
       </c>
       <c r="I6" s="2">
         <v>13.57</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="6">
         <v>14.89</v>
       </c>
       <c r="K6">
         <f t="shared" si="2"/>
-        <v>1.3200000000000003</v>
+        <v>1.32</v>
       </c>
       <c r="L6" s="2">
         <f t="shared" si="3"/>
-        <v>1.2900000000000003</v>
+        <v>1.29</v>
       </c>
       <c r="M6" s="2">
         <f t="shared" si="4"/>
-        <v>23.366192040890855</v>
+        <v>23.3661920408909</v>
       </c>
       <c r="N6" s="5">
-        <v>6.8000000000000005E-2</v>
+        <v>0.068</v>
       </c>
       <c r="O6" s="5">
-        <v>7.0999999999999994E-2</v>
+        <v>0.071</v>
       </c>
       <c r="P6" s="5">
         <f t="shared" si="5"/>
-        <v>6.9500000000000006E-2</v>
-      </c>
-      <c r="Q6" s="6">
+        <v>0.0695</v>
+      </c>
+      <c r="Q6" s="7">
         <f t="shared" si="6"/>
-        <v>2.2829816666666662</v>
-      </c>
-      <c r="R6" s="7">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="S6" s="7">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="T6" s="7">
+        <v>2.28298166666667</v>
+      </c>
+      <c r="R6" s="8">
+        <v>0.085</v>
+      </c>
+      <c r="S6" s="8">
+        <v>0.083</v>
+      </c>
+      <c r="T6" s="8">
         <f t="shared" si="7"/>
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="U6" s="7">
+        <v>0.084</v>
+      </c>
+      <c r="U6" s="8">
         <f t="shared" si="8"/>
-        <v>8.8069000000000006</v>
+        <v>8.8069</v>
       </c>
       <c r="V6" s="2">
         <v>6.52</v>
@@ -924,11 +1528,11 @@
         <v>1.58</v>
       </c>
       <c r="X6" s="2"/>
-      <c r="Y6" s="9">
+      <c r="Y6" s="10">
         <v>22.9</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="7" ht="15.9" spans="1:25">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -943,63 +1547,63 @@
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>1.3099999999999987</v>
+        <v>1.31</v>
       </c>
       <c r="F7" s="2">
         <v>16.2</v>
       </c>
       <c r="G7" s="2">
-        <v>17.399999999999999</v>
+        <v>17.4</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
-        <v>1.1999999999999993</v>
+        <v>1.2</v>
       </c>
       <c r="I7" s="2">
-        <v>17.399999999999999</v>
+        <v>17.4</v>
       </c>
       <c r="J7" s="2">
-        <v>18.690000000000001</v>
+        <v>18.69</v>
       </c>
       <c r="K7">
         <f t="shared" si="2"/>
-        <v>1.2900000000000027</v>
+        <v>1.29</v>
       </c>
       <c r="L7" s="2">
         <f t="shared" si="3"/>
-        <v>1.2666666666666668</v>
+        <v>1.26666666666667</v>
       </c>
       <c r="M7" s="2">
         <f t="shared" si="4"/>
-        <v>30.181331386150706</v>
+        <v>30.1813313861507</v>
       </c>
       <c r="N7" s="5">
-        <v>8.4000000000000005E-2</v>
+        <v>0.084</v>
       </c>
       <c r="O7" s="5">
-        <v>8.4000000000000005E-2</v>
+        <v>0.084</v>
       </c>
       <c r="P7" s="5">
         <f t="shared" si="5"/>
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="Q7" s="6">
+        <v>0.084</v>
+      </c>
+      <c r="Q7" s="7">
         <f t="shared" si="6"/>
-        <v>3.6049466666666663</v>
-      </c>
-      <c r="R7" s="7">
-        <v>0.10100000000000001</v>
-      </c>
-      <c r="S7" s="7">
-        <v>0.10299999999999999</v>
-      </c>
-      <c r="T7" s="7">
+        <v>3.60494666666667</v>
+      </c>
+      <c r="R7" s="8">
+        <v>0.101</v>
+      </c>
+      <c r="S7" s="8">
+        <v>0.103</v>
+      </c>
+      <c r="T7" s="8">
         <f t="shared" si="7"/>
-        <v>0.10200000000000001</v>
-      </c>
-      <c r="U7" s="7">
+        <v>0.102</v>
+      </c>
+      <c r="U7" s="8">
         <f t="shared" si="8"/>
-        <v>10.752699999999999</v>
+        <v>10.7527</v>
       </c>
       <c r="V7" s="2">
         <v>6.56</v>
@@ -1008,11 +1612,11 @@
         <v>1.38</v>
       </c>
       <c r="X7" s="2"/>
-      <c r="Y7" s="9">
+      <c r="Y7" s="10">
         <v>22.7</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="27" x14ac:dyDescent="0.15">
+    <row r="8" ht="30.3" spans="1:25">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -1033,55 +1637,55 @@
         <v>3.19</v>
       </c>
       <c r="G8" s="2">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>1.2100000000000004</v>
+        <v>1.21</v>
       </c>
       <c r="I8" s="2">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="J8" s="2">
         <v>5.68</v>
       </c>
       <c r="K8">
         <f t="shared" si="2"/>
-        <v>1.2799999999999994</v>
+        <v>1.28</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" si="3"/>
-        <v>1.2299999999999998</v>
+        <v>1.23</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="4"/>
-        <v>40.890836071559129</v>
+        <v>40.8908360715591</v>
       </c>
       <c r="N8" s="5">
-        <v>0.14099999999999999</v>
+        <v>0.141</v>
       </c>
       <c r="O8" s="5">
-        <v>0.14899999999999999</v>
+        <v>0.149</v>
       </c>
       <c r="P8" s="5">
         <f t="shared" si="5"/>
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="Q8" s="6">
+        <v>0.145</v>
+      </c>
+      <c r="Q8" s="7">
         <f t="shared" si="6"/>
-        <v>9.1663166666666633</v>
-      </c>
-      <c r="R8" s="7">
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="S8" s="7">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="T8" s="7">
+        <v>9.16631666666666</v>
+      </c>
+      <c r="R8" s="8">
+        <v>0.069</v>
+      </c>
+      <c r="S8" s="8">
+        <v>0.066</v>
+      </c>
+      <c r="T8" s="8">
         <f t="shared" si="7"/>
-        <v>6.7500000000000004E-2</v>
-      </c>
-      <c r="U8" s="7">
+        <v>0.0675</v>
+      </c>
+      <c r="U8" s="8">
         <f t="shared" si="8"/>
         <v>7.02325</v>
       </c>
@@ -1092,11 +1696,11 @@
         <v>1.47</v>
       </c>
       <c r="X8" s="2"/>
-      <c r="Y8" s="9">
+      <c r="Y8" s="10">
         <v>22.7</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="27" x14ac:dyDescent="0.15">
+    <row r="9" ht="30.3" spans="1:25">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -1111,7 +1715,7 @@
       </c>
       <c r="E9" s="1">
         <f t="shared" si="0"/>
-        <v>0.70000000000000018</v>
+        <v>0.7</v>
       </c>
       <c r="F9" s="2">
         <v>6.38</v>
@@ -1121,7 +1725,7 @@
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
-        <v>1.2199999999999998</v>
+        <v>1.22</v>
       </c>
       <c r="I9" s="2">
         <v>7.6</v>
@@ -1131,43 +1735,43 @@
       </c>
       <c r="K9">
         <f t="shared" si="2"/>
-        <v>1.2900000000000009</v>
+        <v>1.29</v>
       </c>
       <c r="L9" s="2">
         <f>(K9+H9)/2</f>
-        <v>1.2550000000000003</v>
+        <v>1.255</v>
       </c>
       <c r="M9" s="2">
         <f t="shared" si="4"/>
-        <v>33.588901058780571</v>
+        <v>33.5889010587806</v>
       </c>
       <c r="N9" s="5">
-        <v>0.14699999999999999</v>
+        <v>0.147</v>
       </c>
       <c r="O9" s="5">
-        <v>0.14699999999999999</v>
+        <v>0.147</v>
       </c>
       <c r="P9" s="5">
         <f t="shared" si="5"/>
-        <v>0.14699999999999999</v>
-      </c>
-      <c r="Q9" s="6">
+        <v>0.147</v>
+      </c>
+      <c r="Q9" s="7">
         <f t="shared" si="6"/>
-        <v>9.3486566666666651</v>
-      </c>
-      <c r="R9" s="7">
-        <v>7.6999999999999999E-2</v>
-      </c>
-      <c r="S9" s="7">
-        <v>7.6999999999999999E-2</v>
-      </c>
-      <c r="T9" s="7">
+        <v>9.34865666666667</v>
+      </c>
+      <c r="R9" s="8">
+        <v>0.077</v>
+      </c>
+      <c r="S9" s="8">
+        <v>0.077</v>
+      </c>
+      <c r="T9" s="8">
         <f t="shared" si="7"/>
-        <v>7.6999999999999999E-2</v>
-      </c>
-      <c r="U9" s="7">
+        <v>0.077</v>
+      </c>
+      <c r="U9" s="8">
         <f t="shared" si="8"/>
-        <v>8.0501999999999985</v>
+        <v>8.0502</v>
       </c>
       <c r="V9" s="2">
         <v>6.68</v>
@@ -1176,11 +1780,11 @@
         <v>1.43</v>
       </c>
       <c r="X9" s="2"/>
-      <c r="Y9" s="9">
+      <c r="Y9" s="10">
         <v>22.7</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="27" x14ac:dyDescent="0.15">
+    <row r="10" ht="30.3" spans="1:25">
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
@@ -1195,7 +1799,7 @@
       </c>
       <c r="E10" s="1">
         <f t="shared" si="0"/>
-        <v>1.2599999999999998</v>
+        <v>1.26</v>
       </c>
       <c r="F10" s="2">
         <v>10.15</v>
@@ -1215,43 +1819,43 @@
       </c>
       <c r="K10">
         <f t="shared" si="2"/>
-        <v>1.2899999999999991</v>
+        <v>1.29</v>
       </c>
       <c r="L10" s="2">
         <f t="shared" si="3"/>
-        <v>1.2666666666666664</v>
+        <v>1.26666666666667</v>
       </c>
       <c r="M10" s="2">
         <f t="shared" si="4"/>
-        <v>30.181331386150841</v>
+        <v>30.1813313861508</v>
       </c>
       <c r="N10" s="5">
-        <v>8.8999999999999996E-2</v>
+        <v>0.089</v>
       </c>
       <c r="O10" s="5">
-        <v>8.6999999999999994E-2</v>
+        <v>0.087</v>
       </c>
       <c r="P10" s="5">
         <f t="shared" si="5"/>
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="Q10" s="6">
+        <v>0.088</v>
+      </c>
+      <c r="Q10" s="7">
         <f t="shared" si="6"/>
-        <v>3.9696266666666657</v>
-      </c>
-      <c r="R10" s="7">
-        <v>9.2999999999999999E-2</v>
-      </c>
-      <c r="S10" s="7">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="T10" s="7">
+        <v>3.96962666666667</v>
+      </c>
+      <c r="R10" s="8">
+        <v>0.093</v>
+      </c>
+      <c r="S10" s="8">
+        <v>0.092</v>
+      </c>
+      <c r="T10" s="8">
         <f t="shared" si="7"/>
-        <v>9.2499999999999999E-2</v>
-      </c>
-      <c r="U10" s="7">
+        <v>0.0925</v>
+      </c>
+      <c r="U10" s="8">
         <f t="shared" si="8"/>
-        <v>9.7257499999999997</v>
+        <v>9.72575</v>
       </c>
       <c r="V10" s="2">
         <v>6.67</v>
@@ -1260,11 +1864,11 @@
         <v>1.46</v>
       </c>
       <c r="X10" s="2"/>
-      <c r="Y10" s="9">
+      <c r="Y10" s="10">
         <v>22.7</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="11" ht="15.9" spans="1:25">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>27</v>
@@ -1277,7 +1881,7 @@
       </c>
       <c r="E11" s="1">
         <f t="shared" si="0"/>
-        <v>1.4100000000000001</v>
+        <v>1.41</v>
       </c>
       <c r="F11" s="2">
         <v>14.1</v>
@@ -1287,7 +1891,7 @@
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
-        <v>1.4000000000000004</v>
+        <v>1.4</v>
       </c>
       <c r="I11" s="2">
         <v>15.5</v>
@@ -1297,31 +1901,31 @@
       </c>
       <c r="K11">
         <f t="shared" si="2"/>
-        <v>1.3000000000000007</v>
+        <v>1.3</v>
       </c>
       <c r="L11" s="2">
         <f t="shared" si="3"/>
-        <v>1.3700000000000003</v>
+        <v>1.37</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A12" s="10" t="s">
+    <row r="12" ht="15.9" spans="1:25">
+      <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="10"/>
+      <c r="B12" s="1"/>
       <c r="C12" s="2">
         <v>2.77</v>
       </c>
@@ -1330,7 +1934,7 @@
       </c>
       <c r="E12" s="1">
         <f t="shared" si="0"/>
-        <v>9.1300000000000008</v>
+        <v>9.13</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -1353,7 +1957,7 @@
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="13" ht="15.15" spans="1:25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1382,20 +1986,20 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="I2:J2"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="V1:V2"/>
     <mergeCell ref="W1:W2"/>
     <mergeCell ref="X1:X2"/>
     <mergeCell ref="Y1:Y2"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="I2:J2"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>